--- a/andes/cases/ieee14/ieee14_wt3.xlsx
+++ b/andes/cases/ieee14/ieee14_wt3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuiha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/andes/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D2B0766-0706-43DC-9B73-7D43DDF1C68E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC41A634-63CB-5544-AC75-0A6F6077F5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="1440" windowWidth="36660" windowHeight="16305" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="33600" windowHeight="16300" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="294">
   <si>
     <t>uid</t>
   </si>
@@ -569,21 +569,9 @@
     <t>Khv</t>
   </si>
   <si>
-    <t>Iqrmax</t>
-  </si>
-  <si>
-    <t>Iqrmin</t>
-  </si>
-  <si>
     <t>Accel</t>
   </si>
   <si>
-    <t>Iqmax</t>
-  </si>
-  <si>
-    <t>Iqmin</t>
-  </si>
-  <si>
     <t>REGCA1_1</t>
   </si>
   <si>
@@ -930,13 +918,16 @@
   </si>
   <si>
     <t>WTGTRQA1_1</t>
+  </si>
+  <si>
+    <t>PLflag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1323,9 +1314,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1371,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1408,9 +1399,9 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1454,7 +1445,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1495,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1536,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1577,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1632,9 +1623,9 @@
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1678,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1754,9 +1745,9 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1827,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1916,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1996,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2090,9 +2081,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2144,7 +2135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2170,7 +2161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2203,19 +2194,19 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC49D34E-907B-4E1F-B94C-5AE270F09226}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2271,36 +2262,24 @@
         <v>176</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="E2" s="3">
         <v>8</v>
@@ -2342,24 +2321,12 @@
         <v>0.7</v>
       </c>
       <c r="R2" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="S2" s="3">
-        <v>-999</v>
+        <v>0</v>
       </c>
       <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>999</v>
-      </c>
-      <c r="V2" s="3">
-        <v>-999</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
         <v>0.25</v>
       </c>
     </row>
@@ -2372,17 +2339,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35E049C-6957-482F-A25F-1186A8D8FFB3}">
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG3" sqref="AG3"/>
+      <selection pane="bottomLeft" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2396,70 +2363,70 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>123</v>
@@ -2468,102 +2435,102 @@
         <v>124</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="BA1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -2726,19 +2693,19 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4D5BF-F19A-4972-8DAC-8235C5F51DC0}">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2752,120 +2719,123 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AH1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -2883,78 +2853,81 @@
         <v>0</v>
       </c>
       <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
         <v>0.02</v>
       </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
       <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
         <v>0.1</v>
       </c>
-      <c r="O2" s="3">
-        <v>1</v>
-      </c>
       <c r="P2" s="3">
         <v>1</v>
       </c>
       <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
         <v>0.8</v>
       </c>
-      <c r="T2" s="3">
-        <v>1</v>
-      </c>
       <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
         <v>999</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>-999</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X2" s="3">
         <v>-0.02</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y2" s="3">
         <v>0.02</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>999</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <v>-999</v>
       </c>
-      <c r="AA2" s="3">
-        <v>1</v>
-      </c>
       <c r="AB2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3">
         <v>0.1</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>0.02</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AE2" s="3">
         <v>-0.01</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AF2" s="3">
         <v>0.01</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AG2" s="3">
         <v>0.05</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AH2" s="3">
         <v>-0.05</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AI2" s="3">
         <v>999</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AJ2" s="3">
         <v>-999</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AK2" s="3">
         <v>0.02</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AL2" s="3">
         <v>10</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AM2" s="3">
         <v>10</v>
       </c>
     </row>
@@ -2972,9 +2945,9 @@
       <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2988,7 +2961,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>49</v>
@@ -2997,30 +2970,30 @@
         <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>261</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>265</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3058,9 +3031,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3074,16 +3047,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3094,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3120,9 +3093,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3136,51 +3109,51 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>276</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>280</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3230,9 +3203,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3276,7 +3249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3320,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3364,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3408,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3452,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3496,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3540,7 +3513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3584,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3628,7 +3601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3672,7 +3645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3716,7 +3689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3760,7 +3733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3804,7 +3777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3848,7 +3821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3901,14 +3874,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7668F2C4-DE9B-4203-91B8-201854250196}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3922,66 +3895,66 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>292</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>296</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4046,9 +4019,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4083,7 +4056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4118,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4153,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4188,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4223,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4258,7 +4231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4293,7 +4266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4328,7 +4301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4363,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4398,7 +4371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4433,7 +4406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4482,9 +4455,9 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +4516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4599,7 +4572,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4655,7 +4628,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4711,7 +4684,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4781,9 +4754,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4845,7 +4818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4918,9 +4891,9 @@
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4994,7 +4967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5059,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5124,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5189,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5254,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5319,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5384,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5449,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5514,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5579,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5644,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5709,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5774,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5839,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5904,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5969,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6034,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6099,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6164,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6229,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6308,9 +6281,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6342,7 +6315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6374,7 +6347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6420,9 +6393,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6436,7 +6409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6450,7 +6423,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6478,9 +6451,9 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6566,7 +6539,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6649,7 +6622,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6732,7 +6705,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6815,7 +6788,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>

--- a/andes/cases/ieee14/ieee14_wt3.xlsx
+++ b/andes/cases/ieee14/ieee14_wt3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/andes/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC41A634-63CB-5544-AC75-0A6F6077F5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C784CB2-6A52-7543-AAA0-5C30E8D3542B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="33600" windowHeight="16300" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="33600" windowHeight="16300" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="294">
   <si>
     <t>uid</t>
   </si>
@@ -2339,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35E049C-6957-482F-A25F-1186A8D8FFB3}">
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AM1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U19" sqref="U19"/>
     </sheetView>
@@ -2938,16 +2938,16 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2380FAD0-1118-4B99-8E7F-8DD4313D4F58}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2967,22 +2967,19 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3002,18 +2999,15 @@
         <v>1000</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
         <v>1</v>
       </c>
     </row>

--- a/andes/cases/ieee14/ieee14_wt3.xlsx
+++ b/andes/cases/ieee14/ieee14_wt3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/andes/cases/ieee14/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C784CB2-6A52-7543-AAA0-5C30E8D3542B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="33600" windowHeight="16300" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="1" r:id="rId1"/>
@@ -18,8 +12,8 @@
     <sheet name="PQ" sheetId="3" r:id="rId3"/>
     <sheet name="PV" sheetId="4" r:id="rId4"/>
     <sheet name="Slack" sheetId="5" r:id="rId5"/>
-    <sheet name="Line" sheetId="7" r:id="rId6"/>
-    <sheet name="Shunt" sheetId="6" r:id="rId7"/>
+    <sheet name="Shunt" sheetId="6" r:id="rId6"/>
+    <sheet name="Line" sheetId="7" r:id="rId7"/>
     <sheet name="Area" sheetId="8" r:id="rId8"/>
     <sheet name="GENROU" sheetId="9" r:id="rId9"/>
     <sheet name="TGOV1" sheetId="10" r:id="rId10"/>
@@ -27,53 +21,53 @@
     <sheet name="ESST3A" sheetId="12" r:id="rId12"/>
     <sheet name="BusFreq" sheetId="13" r:id="rId13"/>
     <sheet name="REGCA1" sheetId="14" r:id="rId14"/>
-    <sheet name="REECA1" sheetId="16" r:id="rId15"/>
-    <sheet name="REPCA1" sheetId="15" r:id="rId16"/>
+    <sheet name="REECA1" sheetId="15" r:id="rId15"/>
+    <sheet name="REPCA1" sheetId="16" r:id="rId16"/>
     <sheet name="WTDTA1" sheetId="17" r:id="rId17"/>
     <sheet name="WTARA1" sheetId="18" r:id="rId18"/>
     <sheet name="WTPTA1" sheetId="19" r:id="rId19"/>
     <sheet name="WTTQA1" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="303">
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
   <si>
     <t>uid</t>
   </si>
   <si>
-    <t>idx</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>Toggler_1</t>
   </si>
   <si>
+    <t>Toggler_2</t>
+  </si>
+  <si>
     <t>Line</t>
   </si>
   <si>
     <t>Line_1</t>
   </si>
   <si>
-    <t>Toggler_2</t>
-  </si>
-  <si>
     <t>Vn</t>
   </si>
   <si>
@@ -335,6 +329,9 @@
     <t>coi</t>
   </si>
   <si>
+    <t>coi2</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -359,6 +356,12 @@
     <t>S12</t>
   </si>
   <si>
+    <t>gammap</t>
+  </si>
+  <si>
+    <t>gammaq</t>
+  </si>
+  <si>
     <t>xd</t>
   </si>
   <si>
@@ -536,6 +539,9 @@
     <t>BusFreq_3</t>
   </si>
   <si>
+    <t>BusFreq_4</t>
+  </si>
+  <si>
     <t>Tg</t>
   </si>
   <si>
@@ -548,6 +554,9 @@
     <t>Zerox</t>
   </si>
   <si>
+    <t>Lvplsw</t>
+  </si>
+  <si>
     <t>Lvpl1</t>
   </si>
   <si>
@@ -569,12 +578,168 @@
     <t>Khv</t>
   </si>
   <si>
+    <t>Iqrmax</t>
+  </si>
+  <si>
+    <t>Iqrmin</t>
+  </si>
+  <si>
     <t>Accel</t>
   </si>
   <si>
     <t>REGCA1_1</t>
   </si>
   <si>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>PFFLAG</t>
+  </si>
+  <si>
+    <t>VFLAG</t>
+  </si>
+  <si>
+    <t>QFLAG</t>
+  </si>
+  <si>
+    <t>PFLAG</t>
+  </si>
+  <si>
+    <t>PQFLAG</t>
+  </si>
+  <si>
+    <t>Vdip</t>
+  </si>
+  <si>
+    <t>Vup</t>
+  </si>
+  <si>
+    <t>Trv</t>
+  </si>
+  <si>
+    <t>dbd1</t>
+  </si>
+  <si>
+    <t>dbd2</t>
+  </si>
+  <si>
+    <t>Kqv</t>
+  </si>
+  <si>
+    <t>Iqh1</t>
+  </si>
+  <si>
+    <t>Iql1</t>
+  </si>
+  <si>
+    <t>Vref0</t>
+  </si>
+  <si>
+    <t>Iqfrz</t>
+  </si>
+  <si>
+    <t>Thld</t>
+  </si>
+  <si>
+    <t>Thld2</t>
+  </si>
+  <si>
+    <t>Tp</t>
+  </si>
+  <si>
+    <t>QMax</t>
+  </si>
+  <si>
+    <t>QMin</t>
+  </si>
+  <si>
+    <t>Kqp</t>
+  </si>
+  <si>
+    <t>Kqi</t>
+  </si>
+  <si>
+    <t>Kvp</t>
+  </si>
+  <si>
+    <t>Kvi</t>
+  </si>
+  <si>
+    <t>Vref1</t>
+  </si>
+  <si>
+    <t>Tiq</t>
+  </si>
+  <si>
+    <t>dPmax</t>
+  </si>
+  <si>
+    <t>dPmin</t>
+  </si>
+  <si>
+    <t>PMAX</t>
+  </si>
+  <si>
+    <t>PMIN</t>
+  </si>
+  <si>
+    <t>Imax</t>
+  </si>
+  <si>
+    <t>Tpord</t>
+  </si>
+  <si>
+    <t>Vq1</t>
+  </si>
+  <si>
+    <t>Iq1</t>
+  </si>
+  <si>
+    <t>Vq2</t>
+  </si>
+  <si>
+    <t>Iq2</t>
+  </si>
+  <si>
+    <t>Vq3</t>
+  </si>
+  <si>
+    <t>Iq3</t>
+  </si>
+  <si>
+    <t>Vq4</t>
+  </si>
+  <si>
+    <t>Iq4</t>
+  </si>
+  <si>
+    <t>Vp1</t>
+  </si>
+  <si>
+    <t>Ip1</t>
+  </si>
+  <si>
+    <t>Vp2</t>
+  </si>
+  <si>
+    <t>Ip2</t>
+  </si>
+  <si>
+    <t>Vp3</t>
+  </si>
+  <si>
+    <t>Ip3</t>
+  </si>
+  <si>
+    <t>Vp4</t>
+  </si>
+  <si>
+    <t>Ip4</t>
+  </si>
+  <si>
+    <t>REECA1_1</t>
+  </si>
+  <si>
     <t>ree</t>
   </si>
   <si>
@@ -593,6 +758,9 @@
     <t>Fflag</t>
   </si>
   <si>
+    <t>PLflag</t>
+  </si>
+  <si>
     <t>Kp</t>
   </si>
   <si>
@@ -623,12 +791,6 @@
     <t>emin</t>
   </si>
   <si>
-    <t>dbd1</t>
-  </si>
-  <si>
-    <t>dbd2</t>
-  </si>
-  <si>
     <t>Qmax</t>
   </si>
   <si>
@@ -641,9 +803,6 @@
     <t>Kig</t>
   </si>
   <si>
-    <t>Tp</t>
-  </si>
-  <si>
     <t>fdbd1</t>
   </si>
   <si>
@@ -671,157 +830,22 @@
     <t>REPCA1_1</t>
   </si>
   <si>
-    <t>reg</t>
-  </si>
-  <si>
-    <t>PFFLAG</t>
-  </si>
-  <si>
-    <t>VFLAG</t>
-  </si>
-  <si>
-    <t>QFLAG</t>
-  </si>
-  <si>
-    <t>PFLAG</t>
-  </si>
-  <si>
-    <t>PQFLAG</t>
-  </si>
-  <si>
-    <t>Vdip</t>
-  </si>
-  <si>
-    <t>Vup</t>
-  </si>
-  <si>
-    <t>Trv</t>
-  </si>
-  <si>
-    <t>Kqv</t>
-  </si>
-  <si>
-    <t>Iqh1</t>
-  </si>
-  <si>
-    <t>Iql1</t>
-  </si>
-  <si>
-    <t>Vref0</t>
-  </si>
-  <si>
-    <t>Iqfrz</t>
-  </si>
-  <si>
-    <t>Thld</t>
-  </si>
-  <si>
-    <t>Thld2</t>
-  </si>
-  <si>
-    <t>QMax</t>
-  </si>
-  <si>
-    <t>QMin</t>
-  </si>
-  <si>
-    <t>Kqp</t>
-  </si>
-  <si>
-    <t>Kqi</t>
-  </si>
-  <si>
-    <t>Kvp</t>
-  </si>
-  <si>
-    <t>Kvi</t>
-  </si>
-  <si>
-    <t>Vref1</t>
-  </si>
-  <si>
-    <t>Tiq</t>
-  </si>
-  <si>
-    <t>dPmax</t>
-  </si>
-  <si>
-    <t>dPmin</t>
-  </si>
-  <si>
-    <t>PMAX</t>
-  </si>
-  <si>
-    <t>PMIN</t>
-  </si>
-  <si>
-    <t>Imax</t>
-  </si>
-  <si>
-    <t>Tpord</t>
-  </si>
-  <si>
-    <t>Vq1</t>
-  </si>
-  <si>
-    <t>Iq1</t>
-  </si>
-  <si>
-    <t>Vq2</t>
-  </si>
-  <si>
-    <t>Iq2</t>
-  </si>
-  <si>
-    <t>Vq3</t>
-  </si>
-  <si>
-    <t>Iq3</t>
-  </si>
-  <si>
-    <t>Vq4</t>
-  </si>
-  <si>
-    <t>Iq4</t>
-  </si>
-  <si>
-    <t>Vp1</t>
-  </si>
-  <si>
-    <t>Ip1</t>
-  </si>
-  <si>
-    <t>Vp2</t>
-  </si>
-  <si>
-    <t>Ip2</t>
-  </si>
-  <si>
-    <t>Vp3</t>
-  </si>
-  <si>
-    <t>Ip3</t>
-  </si>
-  <si>
-    <t>Vp4</t>
-  </si>
-  <si>
-    <t>Ip4</t>
-  </si>
-  <si>
-    <t>REECA1_1</t>
-  </si>
-  <si>
-    <t>Ht</t>
-  </si>
-  <si>
-    <t>Hg</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>DAMP</t>
+  </si>
+  <si>
+    <t>Htfrac</t>
+  </si>
+  <si>
+    <t>Freq1</t>
   </si>
   <si>
     <t>Dshaft</t>
   </si>
   <si>
-    <t>Kshaft</t>
+    <t>w0</t>
   </si>
   <si>
     <t>WTDTA1_1</t>
@@ -918,36 +942,18 @@
   </si>
   <si>
     <t>WTGTRQA1_1</t>
-  </si>
-  <si>
-    <t>PLflag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -991,34 +997,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{92F1FA7A-4CEE-4237-8B7C-C1AFCDFC66FB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1306,160 +1298,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>1.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1486,21 +1478,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1527,21 +1519,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1568,21 +1560,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1615,84 +1607,84 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
         <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" t="s">
-        <v>116</v>
       </c>
       <c r="F2">
         <v>0.02</v>
@@ -1737,111 +1729,111 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F2">
         <v>0.02</v>
@@ -1889,7 +1881,7 @@
         <v>0.01</v>
       </c>
       <c r="U2">
-        <v>9.7999999999999997E-3</v>
+        <v>0.0098</v>
       </c>
       <c r="V2">
         <v>3.86</v>
@@ -1907,21 +1899,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F3">
         <v>0.02</v>
@@ -1969,7 +1961,7 @@
         <v>0.01</v>
       </c>
       <c r="U3">
-        <v>9.7999999999999997E-3</v>
+        <v>0.0098</v>
       </c>
       <c r="V3">
         <v>3.86</v>
@@ -1987,21 +1979,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F4">
         <v>0.02</v>
@@ -2049,7 +2041,7 @@
         <v>0.01</v>
       </c>
       <c r="U4">
-        <v>9.7999999999999997E-3</v>
+        <v>0.0098</v>
       </c>
       <c r="V4">
         <v>3.86</v>
@@ -2073,54 +2065,54 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2135,18 +2127,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2161,18 +2153,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2184,6 +2176,32 @@
         <v>0.02</v>
       </c>
       <c r="H4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
+      </c>
+      <c r="G5">
+        <v>0.02</v>
+      </c>
+      <c r="H5">
         <v>60</v>
       </c>
     </row>
@@ -2193,141 +2211,162 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC49D34E-907B-4E1F-B94C-5AE270F09226}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="8.83203125" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="3">
+      <c r="Q1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
         <v>0.1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2">
         <v>999</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2">
         <v>0.8</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2">
         <v>0.5</v>
       </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>1.2</v>
       </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>0.4</v>
       </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>0.1</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="S2">
         <v>0.7</v>
       </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0.25</v>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>-1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2336,353 +2375,350 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35E049C-6957-482F-A25F-1186A8D8FFB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U19" sqref="U19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="8.83203125" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:56">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="BA1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="BD1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AI1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:56">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>234</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>0.8</v>
       </c>
-      <c r="M2" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="M2">
+        <v>1.1</v>
+      </c>
+      <c r="N2">
         <v>0.02</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2">
         <v>-0.02</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2">
         <v>0.02</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2">
         <v>20</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2">
         <v>999</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2">
         <v>-999</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2">
         <v>1.03</v>
       </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>-2</v>
       </c>
-      <c r="W2" s="3">
-        <v>1</v>
-      </c>
-      <c r="X2" s="3">
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
         <v>0.02</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2">
         <v>999</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2">
         <v>-999</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2">
         <v>999</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2">
         <v>-999</v>
       </c>
-      <c r="AC2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="3">
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
         <v>0.1</v>
       </c>
-      <c r="AE2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="3">
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
         <v>0.1</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AG2">
         <v>1.03</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AH2">
         <v>0.02</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2">
         <v>999</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AJ2">
         <v>-999</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2">
         <v>999</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2">
         <v>-999</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AM2">
         <v>10</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AN2">
         <v>0.02</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2">
         <v>0.2</v>
       </c>
-      <c r="AP2" s="3">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="3">
+      <c r="AP2">
+        <v>2</v>
+      </c>
+      <c r="AQ2">
         <v>0.4</v>
       </c>
-      <c r="AR2" s="3">
+      <c r="AR2">
         <v>4</v>
       </c>
-      <c r="AS2" s="3">
+      <c r="AS2">
         <v>0.8</v>
       </c>
-      <c r="AT2" s="3">
+      <c r="AT2">
         <v>8</v>
       </c>
-      <c r="AU2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="3">
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
         <v>10</v>
       </c>
-      <c r="AW2" s="3">
+      <c r="AW2">
         <v>0.2</v>
       </c>
-      <c r="AX2" s="3">
-        <v>2</v>
-      </c>
-      <c r="AY2" s="3">
+      <c r="AX2">
+        <v>2</v>
+      </c>
+      <c r="AY2">
         <v>0.4</v>
       </c>
-      <c r="AZ2" s="3">
+      <c r="AZ2">
         <v>4</v>
       </c>
-      <c r="BA2" s="3">
+      <c r="BA2">
         <v>0.8</v>
       </c>
-      <c r="BB2" s="3">
+      <c r="BB2">
         <v>8</v>
       </c>
-      <c r="BC2" s="3">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="3">
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
         <v>10</v>
       </c>
     </row>
@@ -2692,242 +2728,242 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4D5BF-F19A-4972-8DAC-8235C5F51DC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="8.83203125" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="2" t="s">
+    <row r="1" spans="1:39">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="N1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="AE1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="H2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>0.02</v>
       </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>0.1</v>
       </c>
-      <c r="P2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
         <v>0.8</v>
       </c>
-      <c r="U2" s="3">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3">
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <v>999</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2">
         <v>-999</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2">
         <v>-0.02</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2">
         <v>0.02</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2">
         <v>999</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2">
         <v>-999</v>
       </c>
-      <c r="AB2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="3">
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
         <v>0.1</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2">
         <v>0.02</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AE2">
         <v>-0.01</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AF2">
         <v>0.01</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AG2">
         <v>0.05</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AH2">
         <v>-0.05</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2">
         <v>999</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AJ2">
         <v>-999</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2">
         <v>0.02</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2">
         <v>10</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AM2">
         <v>10</v>
       </c>
     </row>
@@ -2937,49 +2973,52 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2380FAD0-1118-4B99-8E7F-8DD4313D4F58}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2990,24 +3029,27 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
@@ -3017,7 +3059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1825734-CB1D-4FED-923A-71579ABBC6E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3025,32 +3067,32 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3061,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3079,7 +3121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F882A24B-D5C9-4AFF-A5E8-14F4B6EF876A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3087,56 +3129,56 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3147,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3189,7 +3231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3197,20 +3239,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -3243,7 +3285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3260,7 +3302,7 @@
         <v>69</v>
       </c>
       <c r="F2">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G2">
         <v>0.9</v>
@@ -3287,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3304,16 +3346,16 @@
         <v>69</v>
       </c>
       <c r="F3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G3">
         <v>0.9</v>
       </c>
       <c r="H3">
-        <v>1.0197000000000001</v>
+        <v>1.0197</v>
       </c>
       <c r="I3">
-        <v>-2.7981118567973098E-2</v>
+        <v>-0.0279811185679731</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -3331,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3348,16 +3390,16 @@
         <v>69</v>
       </c>
       <c r="F4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G4">
         <v>0.9</v>
       </c>
       <c r="H4">
-        <v>1.0004200000000001</v>
+        <v>1.00042</v>
       </c>
       <c r="I4">
-        <v>-6.0096922133920698E-2</v>
+        <v>-0.0600969221339207</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3375,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3392,16 +3434,16 @@
         <v>69</v>
       </c>
       <c r="F5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G5">
         <v>0.9</v>
       </c>
       <c r="H5">
-        <v>0.99858000000000002</v>
+        <v>0.99858</v>
       </c>
       <c r="I5">
-        <v>-7.47210359363812E-2</v>
+        <v>-0.0747210359363812</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3419,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3436,16 +3478,16 @@
         <v>69</v>
       </c>
       <c r="F6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G6">
         <v>0.9</v>
       </c>
       <c r="H6">
-        <v>1.0044299999999999</v>
+        <v>1.00443</v>
       </c>
       <c r="I6">
-        <v>-6.4315382935990997E-2</v>
+        <v>-0.064315382935991</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3463,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3480,16 +3522,16 @@
         <v>138</v>
       </c>
       <c r="F7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G7">
         <v>0.9</v>
       </c>
       <c r="H7">
-        <v>0.99870999999999999</v>
+        <v>0.99871</v>
       </c>
       <c r="I7">
-        <v>-0.10999763077769099</v>
+        <v>-0.109997630777691</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3507,7 +3549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3524,7 +3566,7 @@
         <v>138</v>
       </c>
       <c r="F8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G8">
         <v>0.9</v>
@@ -3533,7 +3575,7 @@
         <v>1.00682</v>
       </c>
       <c r="I8">
-        <v>-8.4285440237310202E-2</v>
+        <v>-0.0842854402373102</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3551,7 +3593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3568,7 +3610,7 @@
         <v>69</v>
       </c>
       <c r="F9">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G9">
         <v>0.9</v>
@@ -3577,7 +3619,7 @@
         <v>1.01895</v>
       </c>
       <c r="I9">
-        <v>-2.4338616419060901E-2</v>
+        <v>-0.0243386164190609</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3595,7 +3637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3612,7 +3654,7 @@
         <v>138</v>
       </c>
       <c r="F10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G10">
         <v>0.9</v>
@@ -3621,7 +3663,7 @@
         <v>1.00193</v>
       </c>
       <c r="I10">
-        <v>-0.12750153784594201</v>
+        <v>-0.127501537845942</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3639,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3656,7 +3698,7 @@
         <v>138</v>
       </c>
       <c r="F11">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G11">
         <v>0.9</v>
@@ -3665,7 +3707,7 @@
         <v>0.99351</v>
       </c>
       <c r="I11">
-        <v>-0.13020156219877699</v>
+        <v>-0.130201562198777</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3683,7 +3725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3700,13 +3742,13 @@
         <v>138</v>
       </c>
       <c r="F12">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G12">
         <v>0.9</v>
       </c>
       <c r="H12">
-        <v>0.99245000000000005</v>
+        <v>0.9924500000000001</v>
       </c>
       <c r="I12">
         <v>-0.122947973827489</v>
@@ -3727,7 +3769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3744,13 +3786,13 @@
         <v>138</v>
       </c>
       <c r="F13">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G13">
         <v>0.9</v>
       </c>
       <c r="H13">
-        <v>0.98638999999999999</v>
+        <v>0.98639</v>
       </c>
       <c r="I13">
         <v>-0.128934453161829</v>
@@ -3771,7 +3813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3788,16 +3830,16 @@
         <v>138</v>
       </c>
       <c r="F14">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G14">
         <v>0.9</v>
       </c>
       <c r="H14">
-        <v>0.98402999999999996</v>
+        <v>0.98403</v>
       </c>
       <c r="I14">
-        <v>-0.13378646848237299</v>
+        <v>-0.133786468482373</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3815,7 +3857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3832,13 +3874,13 @@
         <v>138</v>
       </c>
       <c r="F15">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G15">
         <v>0.9</v>
       </c>
       <c r="H15">
-        <v>0.99063000000000001</v>
+        <v>0.99063</v>
       </c>
       <c r="I15">
         <v>-0.16691630834373</v>
@@ -3865,79 +3907,82 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7668F2C4-DE9B-4203-91B8-201854250196}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3948,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3978,7 +4023,7 @@
         <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="O2">
         <v>0.4</v>
@@ -4005,7 +4050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4013,20 +4058,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>35</v>
@@ -4050,7 +4095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4085,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4120,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4140,7 +4185,7 @@
         <v>69</v>
       </c>
       <c r="G4">
-        <v>0.47799999999999998</v>
+        <v>0.478</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -4155,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4175,10 +4220,10 @@
         <v>69</v>
       </c>
       <c r="G5">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
       <c r="H5">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="I5">
         <v>1.2</v>
@@ -4190,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4213,7 +4258,7 @@
         <v>0.15</v>
       </c>
       <c r="H6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I6">
         <v>1.2</v>
@@ -4225,7 +4270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4245,10 +4290,10 @@
         <v>138</v>
       </c>
       <c r="G7">
-        <v>0.29499999999999998</v>
+        <v>0.295</v>
       </c>
       <c r="H7">
-        <v>0.16600000000000001</v>
+        <v>0.166</v>
       </c>
       <c r="I7">
         <v>1.2</v>
@@ -4260,7 +4305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4283,7 +4328,7 @@
         <v>0.09</v>
       </c>
       <c r="H8">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="I8">
         <v>1.2</v>
@@ -4295,7 +4340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4315,10 +4360,10 @@
         <v>138</v>
       </c>
       <c r="G9">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="H9">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="I9">
         <v>1.2</v>
@@ -4330,7 +4375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4350,10 +4395,10 @@
         <v>138</v>
       </c>
       <c r="G10">
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="H10">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="I10">
         <v>1.2</v>
@@ -4365,7 +4410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4385,10 +4430,10 @@
         <v>138</v>
       </c>
       <c r="G11">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="H11">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="I11">
         <v>1.2</v>
@@ -4400,7 +4445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4423,7 +4468,7 @@
         <v>0.2</v>
       </c>
       <c r="H12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I12">
         <v>1.2</v>
@@ -4441,28 +4486,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>49</v>
@@ -4510,7 +4555,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4566,7 +4611,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4622,7 +4667,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4678,7 +4723,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4740,7 +4785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4748,20 +4793,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>49</v>
@@ -4812,7 +4857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4835,10 +4880,10 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.81442000000000003</v>
+        <v>0.81442</v>
       </c>
       <c r="J2">
-        <v>1.9619999999999999E-2</v>
+        <v>0.01962</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -4877,1397 +4922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:X21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="I2">
-        <v>69</v>
-      </c>
-      <c r="J2">
-        <v>69</v>
-      </c>
-      <c r="K2">
-        <v>1.9380000000000001E-2</v>
-      </c>
-      <c r="L2">
-        <v>5.917E-2</v>
-      </c>
-      <c r="M2">
-        <v>5.28E-2</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="I3">
-        <v>69</v>
-      </c>
-      <c r="J3">
-        <v>69</v>
-      </c>
-      <c r="K3">
-        <v>5.4030000000000002E-2</v>
-      </c>
-      <c r="L3">
-        <v>0.22303999999999999</v>
-      </c>
-      <c r="M3">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="I4">
-        <v>69</v>
-      </c>
-      <c r="J4">
-        <v>69</v>
-      </c>
-      <c r="K4">
-        <v>4.6989999999999997E-2</v>
-      </c>
-      <c r="L4">
-        <v>0.19797000000000001</v>
-      </c>
-      <c r="M4">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="I5">
-        <v>69</v>
-      </c>
-      <c r="J5">
-        <v>69</v>
-      </c>
-      <c r="K5">
-        <v>5.8110000000000002E-2</v>
-      </c>
-      <c r="L5">
-        <v>0.17632</v>
-      </c>
-      <c r="M5">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>60</v>
-      </c>
-      <c r="I6">
-        <v>69</v>
-      </c>
-      <c r="J6">
-        <v>69</v>
-      </c>
-      <c r="K6">
-        <v>5.6950000000000001E-2</v>
-      </c>
-      <c r="L6">
-        <v>0.17388000000000001</v>
-      </c>
-      <c r="M6">
-        <v>3.4599999999999999E-2</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="I7">
-        <v>69</v>
-      </c>
-      <c r="J7">
-        <v>69</v>
-      </c>
-      <c r="K7">
-        <v>6.701E-2</v>
-      </c>
-      <c r="L7">
-        <v>0.17102999999999999</v>
-      </c>
-      <c r="M7">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>60</v>
-      </c>
-      <c r="I8">
-        <v>69</v>
-      </c>
-      <c r="J8">
-        <v>69</v>
-      </c>
-      <c r="K8">
-        <v>1.3350000000000001E-2</v>
-      </c>
-      <c r="L8">
-        <v>4.2110000000000002E-2</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>60</v>
-      </c>
-      <c r="I9">
-        <v>138</v>
-      </c>
-      <c r="J9">
-        <v>138</v>
-      </c>
-      <c r="K9">
-        <v>9.4979999999999995E-2</v>
-      </c>
-      <c r="L9">
-        <v>0.19889999999999999</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-      <c r="I10">
-        <v>138</v>
-      </c>
-      <c r="J10">
-        <v>138</v>
-      </c>
-      <c r="K10">
-        <v>0.12291000000000001</v>
-      </c>
-      <c r="L10">
-        <v>0.25580999999999998</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>60</v>
-      </c>
-      <c r="I11">
-        <v>138</v>
-      </c>
-      <c r="J11">
-        <v>138</v>
-      </c>
-      <c r="K11">
-        <v>6.615E-2</v>
-      </c>
-      <c r="L11">
-        <v>0.13027</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>60</v>
-      </c>
-      <c r="I12">
-        <v>138</v>
-      </c>
-      <c r="J12">
-        <v>138</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0.11001</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
-        <v>60</v>
-      </c>
-      <c r="I13">
-        <v>138</v>
-      </c>
-      <c r="J13">
-        <v>138</v>
-      </c>
-      <c r="K13">
-        <v>3.1809999999999998E-2</v>
-      </c>
-      <c r="L13">
-        <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
-        <v>60</v>
-      </c>
-      <c r="I14">
-        <v>138</v>
-      </c>
-      <c r="J14">
-        <v>138</v>
-      </c>
-      <c r="K14">
-        <v>0.12711</v>
-      </c>
-      <c r="L14">
-        <v>0.27038000000000001</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-      <c r="H15">
-        <v>60</v>
-      </c>
-      <c r="I15">
-        <v>138</v>
-      </c>
-      <c r="J15">
-        <v>138</v>
-      </c>
-      <c r="K15">
-        <v>8.2049999999999998E-2</v>
-      </c>
-      <c r="L15">
-        <v>0.19206999999999999</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-      <c r="H16">
-        <v>60</v>
-      </c>
-      <c r="I16">
-        <v>138</v>
-      </c>
-      <c r="J16">
-        <v>138</v>
-      </c>
-      <c r="K16">
-        <v>0.22092000000000001</v>
-      </c>
-      <c r="L16">
-        <v>0.19988</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17">
-        <v>13</v>
-      </c>
-      <c r="F17">
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>60</v>
-      </c>
-      <c r="I17">
-        <v>138</v>
-      </c>
-      <c r="J17">
-        <v>138</v>
-      </c>
-      <c r="K17">
-        <v>0.17093</v>
-      </c>
-      <c r="L17">
-        <v>0.34802</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-      <c r="H18">
-        <v>60</v>
-      </c>
-      <c r="I18">
-        <v>69</v>
-      </c>
-      <c r="J18">
-        <v>138</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.20912</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>0.99677000000000004</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-      <c r="H19">
-        <v>60</v>
-      </c>
-      <c r="I19">
-        <v>69</v>
-      </c>
-      <c r="J19">
-        <v>138</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0.55618000000000001</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>0.99677000000000004</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20">
-        <v>60</v>
-      </c>
-      <c r="I20">
-        <v>138</v>
-      </c>
-      <c r="J20">
-        <v>69</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0.25202000000000002</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>0.99677000000000004</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <v>60</v>
-      </c>
-      <c r="I21">
-        <v>69</v>
-      </c>
-      <c r="J21">
-        <v>138</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0.17615</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>0.99677000000000004</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6275,20 +4930,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>35</v>
@@ -6309,7 +4964,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6341,7 +4996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6371,6 +5026,1396 @@
       </c>
       <c r="J3">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>69</v>
+      </c>
+      <c r="J2">
+        <v>69</v>
+      </c>
+      <c r="K2">
+        <v>0.01938</v>
+      </c>
+      <c r="L2">
+        <v>0.05917</v>
+      </c>
+      <c r="M2">
+        <v>0.0528</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>69</v>
+      </c>
+      <c r="J3">
+        <v>69</v>
+      </c>
+      <c r="K3">
+        <v>0.05403</v>
+      </c>
+      <c r="L3">
+        <v>0.22304</v>
+      </c>
+      <c r="M3">
+        <v>0.0492</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>69</v>
+      </c>
+      <c r="J4">
+        <v>69</v>
+      </c>
+      <c r="K4">
+        <v>0.04699</v>
+      </c>
+      <c r="L4">
+        <v>0.19797</v>
+      </c>
+      <c r="M4">
+        <v>0.0438</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>69</v>
+      </c>
+      <c r="J5">
+        <v>69</v>
+      </c>
+      <c r="K5">
+        <v>0.05811</v>
+      </c>
+      <c r="L5">
+        <v>0.17632</v>
+      </c>
+      <c r="M5">
+        <v>0.034</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>69</v>
+      </c>
+      <c r="J6">
+        <v>69</v>
+      </c>
+      <c r="K6">
+        <v>0.05695</v>
+      </c>
+      <c r="L6">
+        <v>0.17388</v>
+      </c>
+      <c r="M6">
+        <v>0.0346</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+      <c r="I7">
+        <v>69</v>
+      </c>
+      <c r="J7">
+        <v>69</v>
+      </c>
+      <c r="K7">
+        <v>0.06701</v>
+      </c>
+      <c r="L7">
+        <v>0.17103</v>
+      </c>
+      <c r="M7">
+        <v>0.0128</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>69</v>
+      </c>
+      <c r="J8">
+        <v>69</v>
+      </c>
+      <c r="K8">
+        <v>0.01335</v>
+      </c>
+      <c r="L8">
+        <v>0.04211</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>138</v>
+      </c>
+      <c r="J9">
+        <v>138</v>
+      </c>
+      <c r="K9">
+        <v>0.09497999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.1989</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>138</v>
+      </c>
+      <c r="J10">
+        <v>138</v>
+      </c>
+      <c r="K10">
+        <v>0.12291</v>
+      </c>
+      <c r="L10">
+        <v>0.25581</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>138</v>
+      </c>
+      <c r="J11">
+        <v>138</v>
+      </c>
+      <c r="K11">
+        <v>0.06615</v>
+      </c>
+      <c r="L11">
+        <v>0.13027</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>60</v>
+      </c>
+      <c r="I12">
+        <v>138</v>
+      </c>
+      <c r="J12">
+        <v>138</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.11001</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+      <c r="I13">
+        <v>138</v>
+      </c>
+      <c r="J13">
+        <v>138</v>
+      </c>
+      <c r="K13">
+        <v>0.03181</v>
+      </c>
+      <c r="L13">
+        <v>0.08450000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>138</v>
+      </c>
+      <c r="J14">
+        <v>138</v>
+      </c>
+      <c r="K14">
+        <v>0.12711</v>
+      </c>
+      <c r="L14">
+        <v>0.27038</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>138</v>
+      </c>
+      <c r="J15">
+        <v>138</v>
+      </c>
+      <c r="K15">
+        <v>0.08205</v>
+      </c>
+      <c r="L15">
+        <v>0.19207</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>138</v>
+      </c>
+      <c r="J16">
+        <v>138</v>
+      </c>
+      <c r="K16">
+        <v>0.22092</v>
+      </c>
+      <c r="L16">
+        <v>0.19988</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="I17">
+        <v>138</v>
+      </c>
+      <c r="J17">
+        <v>138</v>
+      </c>
+      <c r="K17">
+        <v>0.17093</v>
+      </c>
+      <c r="L17">
+        <v>0.34802</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <v>69</v>
+      </c>
+      <c r="J18">
+        <v>138</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.20912</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0.99677</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>60</v>
+      </c>
+      <c r="I19">
+        <v>69</v>
+      </c>
+      <c r="J19">
+        <v>138</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.55618</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0.99677</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>60</v>
+      </c>
+      <c r="I20">
+        <v>138</v>
+      </c>
+      <c r="J20">
+        <v>69</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.25202</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0.99677</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <v>69</v>
+      </c>
+      <c r="J21">
+        <v>138</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.17615</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0.99677</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6379,7 +6424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6387,23 +6432,23 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6417,7 +6462,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6437,28 +6482,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>35</v>
@@ -6470,25 +6515,25 @@
         <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>101</v>
@@ -6532,19 +6577,28 @@
       <c r="AB1" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -6552,82 +6606,88 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>69</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>60</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>8</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>0.15</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.6</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>0.09</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.38</v>
       </c>
-      <c r="T2">
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
         <v>1.8</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <v>1.75</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <v>0.23</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>0.8</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <v>0.23</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <v>6.5</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <v>0.06</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <v>0.2</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -6635,82 +6695,88 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>69</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>60</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>13</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>0.15</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.6</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>0.09</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.38</v>
       </c>
-      <c r="T3">
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
         <v>1.8</v>
       </c>
-      <c r="U3">
+      <c r="X3">
         <v>1.75</v>
       </c>
-      <c r="V3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>0.28</v>
+      </c>
+      <c r="Z3">
         <v>0.8</v>
       </c>
-      <c r="X3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Y3">
+      <c r="AA3">
+        <v>0.28</v>
+      </c>
+      <c r="AB3">
         <v>6.5</v>
       </c>
-      <c r="Z3">
+      <c r="AC3">
         <v>0.06</v>
       </c>
-      <c r="AA3">
+      <c r="AD3">
         <v>0.2</v>
       </c>
-      <c r="AB3">
+      <c r="AE3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -6718,82 +6784,88 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>69</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>60</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>0.15</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.6</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>0.09</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.38</v>
       </c>
-      <c r="T4">
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
         <v>1.8</v>
       </c>
-      <c r="U4">
+      <c r="X4">
         <v>1.75</v>
       </c>
-      <c r="V4">
+      <c r="Y4">
         <v>0.34</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>0.8</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>0.34</v>
       </c>
-      <c r="Y4">
+      <c r="AB4">
         <v>6.5</v>
       </c>
-      <c r="Z4">
+      <c r="AC4">
         <v>0.06</v>
       </c>
-      <c r="AA4">
+      <c r="AD4">
         <v>0.2</v>
       </c>
-      <c r="AB4">
+      <c r="AE4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -6801,67 +6873,73 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>100</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>138</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>60</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>0.15</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.6</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>0.09</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.38</v>
       </c>
-      <c r="T5">
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
         <v>1.8</v>
       </c>
-      <c r="U5">
+      <c r="X5">
         <v>1.75</v>
       </c>
-      <c r="V5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>0.28</v>
+      </c>
+      <c r="Z5">
         <v>0.8</v>
       </c>
-      <c r="X5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="Y5">
+      <c r="AA5">
+        <v>0.28</v>
+      </c>
+      <c r="AB5">
         <v>6.5</v>
       </c>
-      <c r="Z5">
+      <c r="AC5">
         <v>0.06</v>
       </c>
-      <c r="AA5">
+      <c r="AD5">
         <v>0.2</v>
       </c>
-      <c r="AB5">
+      <c r="AE5">
         <v>0.05</v>
       </c>
     </row>
